--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H2">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I2">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J2">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>29.00081625704604</v>
+        <v>45.09499352273634</v>
       </c>
       <c r="R2">
-        <v>29.00081625704604</v>
+        <v>405.854941704627</v>
       </c>
       <c r="S2">
-        <v>0.0001194845478189998</v>
+        <v>0.0001629504218966753</v>
       </c>
       <c r="T2">
-        <v>0.0001194845478189998</v>
+        <v>0.0001629504218966753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H3">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I3">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J3">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>57.5377633301707</v>
+        <v>69.27960578857689</v>
       </c>
       <c r="R3">
-        <v>57.5377633301707</v>
+        <v>623.516452097192</v>
       </c>
       <c r="S3">
-        <v>0.0002370579356486822</v>
+        <v>0.0002503413374788956</v>
       </c>
       <c r="T3">
-        <v>0.0002370579356486822</v>
+        <v>0.0002503413374788956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H4">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I4">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J4">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>27.01162115988568</v>
+        <v>34.61853464120089</v>
       </c>
       <c r="R4">
-        <v>27.01162115988568</v>
+        <v>311.566811770808</v>
       </c>
       <c r="S4">
-        <v>0.0001112889827493363</v>
+        <v>0.0001250938160659493</v>
       </c>
       <c r="T4">
-        <v>0.0001112889827493363</v>
+        <v>0.0001250938160659493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H5">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I5">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J5">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>30.3182714970289</v>
+        <v>36.33582541225445</v>
       </c>
       <c r="R5">
-        <v>30.3182714970289</v>
+        <v>327.0224287102901</v>
       </c>
       <c r="S5">
-        <v>0.000124912517232891</v>
+        <v>0.0001312992334261126</v>
       </c>
       <c r="T5">
-        <v>0.000124912517232891</v>
+        <v>0.0001312992334261127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H6">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I6">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J6">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>22.64017047358232</v>
+        <v>27.67870644942467</v>
       </c>
       <c r="R6">
-        <v>22.64017047358232</v>
+        <v>249.108358044822</v>
       </c>
       <c r="S6">
-        <v>9.327842732439683E-05</v>
+        <v>0.0001000167987875186</v>
       </c>
       <c r="T6">
-        <v>9.327842732439683E-05</v>
+        <v>0.0001000167987875186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H7">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I7">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J7">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>42.78831571634502</v>
+        <v>55.10155057531389</v>
       </c>
       <c r="R7">
-        <v>42.78831571634502</v>
+        <v>495.913955177825</v>
       </c>
       <c r="S7">
-        <v>0.0001762896088851273</v>
+        <v>0.000199109040982152</v>
       </c>
       <c r="T7">
-        <v>0.0001762896088851273</v>
+        <v>0.000199109040982152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H8">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I8">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J8">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>39.65691436478893</v>
+        <v>64.65801717489767</v>
       </c>
       <c r="R8">
-        <v>39.65691436478893</v>
+        <v>581.9221545740791</v>
       </c>
       <c r="S8">
-        <v>0.0001633881073820591</v>
+        <v>0.0002336412615812862</v>
       </c>
       <c r="T8">
-        <v>0.0001633881073820591</v>
+        <v>0.0002336412615812863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H9">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I9">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J9">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>78.67951484198979</v>
+        <v>99.33435157695376</v>
       </c>
       <c r="R9">
-        <v>78.67951484198979</v>
+        <v>894.0091641925839</v>
       </c>
       <c r="S9">
-        <v>0.0003241628156321073</v>
+        <v>0.0003589439366508882</v>
       </c>
       <c r="T9">
-        <v>0.0003241628156321073</v>
+        <v>0.0003589439366508882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H10">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I10">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J10">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>36.93680680216885</v>
+        <v>49.63668098260177</v>
       </c>
       <c r="R10">
-        <v>36.93680680216885</v>
+        <v>446.730128843416</v>
       </c>
       <c r="S10">
-        <v>0.0001521811530929798</v>
+        <v>0.0001793617755724393</v>
       </c>
       <c r="T10">
-        <v>0.0001521811530929798</v>
+        <v>0.0001793617755724393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H11">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I11">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J11">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>41.45845709270262</v>
+        <v>52.09896354425889</v>
       </c>
       <c r="R11">
-        <v>41.45845709270262</v>
+        <v>468.89067189833</v>
       </c>
       <c r="S11">
-        <v>0.0001708105370238137</v>
+        <v>0.0001882592151972738</v>
       </c>
       <c r="T11">
-        <v>0.0001708105370238137</v>
+        <v>0.0001882592151972738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H12">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I12">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J12">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>30.9591045202715</v>
+        <v>39.68622982689933</v>
       </c>
       <c r="R12">
-        <v>30.9591045202715</v>
+        <v>357.1760684420939</v>
       </c>
       <c r="S12">
-        <v>0.0001275527754701405</v>
+        <v>0.000143405894725789</v>
       </c>
       <c r="T12">
-        <v>0.0001275527754701405</v>
+        <v>0.000143405894725789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H13">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I13">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J13">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>58.51051077792955</v>
+        <v>79.00559962750276</v>
       </c>
       <c r="R13">
-        <v>58.51051077792955</v>
+        <v>711.0503966475248</v>
       </c>
       <c r="S13">
-        <v>0.0002410656948754354</v>
+        <v>0.0002854861434897529</v>
       </c>
       <c r="T13">
-        <v>0.0002410656948754354</v>
+        <v>0.0002854861434897529</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>108.485219539024</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H14">
-        <v>108.485219539024</v>
+        <v>370.234135</v>
       </c>
       <c r="I14">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J14">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>7922.554445057531</v>
+        <v>11699.38027770463</v>
       </c>
       <c r="R14">
-        <v>7922.554445057531</v>
+        <v>105294.4224993417</v>
       </c>
       <c r="S14">
-        <v>0.03264124799277381</v>
+        <v>0.04227562315139081</v>
       </c>
       <c r="T14">
-        <v>0.03264124799277381</v>
+        <v>0.04227562315139081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>108.485219539024</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H15">
-        <v>108.485219539024</v>
+        <v>370.234135</v>
       </c>
       <c r="I15">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J15">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>15718.38732364506</v>
+        <v>17973.80130903821</v>
       </c>
       <c r="R15">
-        <v>15718.38732364506</v>
+        <v>161764.2117813439</v>
       </c>
       <c r="S15">
-        <v>0.06476039795443085</v>
+        <v>0.06494819663114278</v>
       </c>
       <c r="T15">
-        <v>0.06476039795443085</v>
+        <v>0.06494819663114279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>108.485219539024</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H16">
-        <v>108.485219539024</v>
+        <v>370.234135</v>
       </c>
       <c r="I16">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J16">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>7379.138483264885</v>
+        <v>8981.38284951957</v>
       </c>
       <c r="R16">
-        <v>7379.138483264885</v>
+        <v>80832.44564567613</v>
       </c>
       <c r="S16">
-        <v>0.03040235202871122</v>
+        <v>0.03245415976846495</v>
       </c>
       <c r="T16">
-        <v>0.03040235202871122</v>
+        <v>0.03245415976846495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>108.485219539024</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H17">
-        <v>108.485219539024</v>
+        <v>370.234135</v>
       </c>
       <c r="I17">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J17">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>8282.461930942676</v>
+        <v>9426.914297879095</v>
       </c>
       <c r="R17">
-        <v>8282.461930942676</v>
+        <v>84842.22868091187</v>
       </c>
       <c r="S17">
-        <v>0.03412408153878518</v>
+        <v>0.03406408432565149</v>
       </c>
       <c r="T17">
-        <v>0.03412408153878518</v>
+        <v>0.0340640843256515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>108.485219539024</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H18">
-        <v>108.485219539024</v>
+        <v>370.234135</v>
       </c>
       <c r="I18">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J18">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>6184.928783815202</v>
+        <v>7180.923802184537</v>
       </c>
       <c r="R18">
-        <v>6184.928783815202</v>
+        <v>64628.31421966083</v>
       </c>
       <c r="S18">
-        <v>0.02548215927706268</v>
+        <v>0.02594821446384908</v>
       </c>
       <c r="T18">
-        <v>0.02548215927706268</v>
+        <v>0.02594821446384908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>108.485219539024</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H19">
-        <v>108.485219539024</v>
+        <v>370.234135</v>
       </c>
       <c r="I19">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J19">
-        <v>0.2355697116876684</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>11689.07653737824</v>
+        <v>14295.46705105401</v>
       </c>
       <c r="R19">
-        <v>11689.07653737824</v>
+        <v>128659.2034594861</v>
       </c>
       <c r="S19">
-        <v>0.04815947289590463</v>
+        <v>0.05165656329465466</v>
       </c>
       <c r="T19">
-        <v>0.04815947289590463</v>
+        <v>0.05165656329465466</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>153.836566482788</v>
+        <v>156.175644</v>
       </c>
       <c r="H20">
-        <v>153.836566482788</v>
+        <v>468.526932</v>
       </c>
       <c r="I20">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J20">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>11234.51267167492</v>
+        <v>14805.42778102905</v>
       </c>
       <c r="R20">
-        <v>11234.51267167492</v>
+        <v>133248.8500292614</v>
       </c>
       <c r="S20">
-        <v>0.04628665119781804</v>
+        <v>0.05349930257918899</v>
       </c>
       <c r="T20">
-        <v>0.04628665119781804</v>
+        <v>0.053499302579189</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>153.836566482788</v>
+        <v>156.175644</v>
       </c>
       <c r="H21">
-        <v>153.836566482788</v>
+        <v>468.526932</v>
       </c>
       <c r="I21">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J21">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>22289.32887623753</v>
+        <v>22745.63360750422</v>
       </c>
       <c r="R21">
-        <v>22289.32887623753</v>
+        <v>204710.702467538</v>
       </c>
       <c r="S21">
-        <v>0.09183294560956222</v>
+        <v>0.08219117696028234</v>
       </c>
       <c r="T21">
-        <v>0.09183294560956222</v>
+        <v>0.08219117696028236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>153.836566482788</v>
+        <v>156.175644</v>
       </c>
       <c r="H22">
-        <v>153.836566482788</v>
+        <v>468.526932</v>
       </c>
       <c r="I22">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J22">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>10463.9261706811</v>
+        <v>11365.83408659178</v>
       </c>
       <c r="R22">
-        <v>10463.9261706811</v>
+        <v>102292.506779326</v>
       </c>
       <c r="S22">
-        <v>0.04311180333110321</v>
+        <v>0.04107035648389556</v>
       </c>
       <c r="T22">
-        <v>0.04311180333110321</v>
+        <v>0.04107035648389556</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>153.836566482788</v>
+        <v>156.175644</v>
       </c>
       <c r="H23">
-        <v>153.836566482788</v>
+        <v>468.526932</v>
       </c>
       <c r="I23">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J23">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>11744.87649925704</v>
+        <v>11929.64888073388</v>
       </c>
       <c r="R23">
-        <v>11744.87649925704</v>
+        <v>107366.8399266049</v>
       </c>
       <c r="S23">
-        <v>0.0483893710185751</v>
+        <v>0.04310769702660394</v>
       </c>
       <c r="T23">
-        <v>0.0483893710185751</v>
+        <v>0.04310769702660396</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>153.836566482788</v>
+        <v>156.175644</v>
       </c>
       <c r="H24">
-        <v>153.836566482788</v>
+        <v>468.526932</v>
       </c>
       <c r="I24">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J24">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>8770.487003535416</v>
+        <v>9087.374393404583</v>
       </c>
       <c r="R24">
-        <v>8770.487003535416</v>
+        <v>81786.36954064124</v>
       </c>
       <c r="S24">
-        <v>0.03613476477632718</v>
+        <v>0.03283715941974187</v>
       </c>
       <c r="T24">
-        <v>0.03613476477632718</v>
+        <v>0.03283715941974187</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>153.836566482788</v>
+        <v>156.175644</v>
       </c>
       <c r="H25">
-        <v>153.836566482788</v>
+        <v>468.526932</v>
       </c>
       <c r="I25">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J25">
-        <v>0.3340476773459017</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>16575.5981091778</v>
+        <v>18090.7449793559</v>
       </c>
       <c r="R25">
-        <v>16575.5981091778</v>
+        <v>162816.7048142031</v>
       </c>
       <c r="S25">
-        <v>0.06829214141251588</v>
+        <v>0.06537077170938968</v>
       </c>
       <c r="T25">
-        <v>0.06829214141251588</v>
+        <v>0.06537077170938968</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>197.159157163676</v>
+        <v>210.0997873333333</v>
       </c>
       <c r="H26">
-        <v>197.159157163676</v>
+        <v>630.299362</v>
       </c>
       <c r="I26">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="J26">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>14398.31309378507</v>
+        <v>19917.42853433169</v>
       </c>
       <c r="R26">
-        <v>14398.31309378507</v>
+        <v>179256.8568089852</v>
       </c>
       <c r="S26">
-        <v>0.05932163819524602</v>
+        <v>0.0719714790762717</v>
       </c>
       <c r="T26">
-        <v>0.05932163819524602</v>
+        <v>0.07197147907627173</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>197.159157163676</v>
+        <v>210.0997873333333</v>
       </c>
       <c r="H27">
-        <v>197.159157163676</v>
+        <v>630.299362</v>
       </c>
       <c r="I27">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="J27">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>28566.32460966074</v>
+        <v>30599.21932320354</v>
       </c>
       <c r="R27">
-        <v>28566.32460966074</v>
+        <v>275392.9739088318</v>
       </c>
       <c r="S27">
-        <v>0.117694424480442</v>
+        <v>0.1105700502187888</v>
       </c>
       <c r="T27">
-        <v>0.117694424480442</v>
+        <v>0.1105700502187889</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>197.159157163676</v>
+        <v>210.0997873333333</v>
       </c>
       <c r="H28">
-        <v>197.159157163676</v>
+        <v>630.299362</v>
       </c>
       <c r="I28">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="J28">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>13410.71834611729</v>
+        <v>15290.21596004357</v>
       </c>
       <c r="R28">
-        <v>13410.71834611729</v>
+        <v>137611.9436403921</v>
       </c>
       <c r="S28">
-        <v>0.05525270748627557</v>
+        <v>0.05525108103905526</v>
       </c>
       <c r="T28">
-        <v>0.05525270748627557</v>
+        <v>0.05525108103905527</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>197.159157163676</v>
+        <v>210.0997873333333</v>
       </c>
       <c r="H29">
-        <v>197.159157163676</v>
+        <v>630.299362</v>
       </c>
       <c r="I29">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="J29">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>15052.40271885596</v>
+        <v>16048.70406555536</v>
       </c>
       <c r="R29">
-        <v>15052.40271885596</v>
+        <v>144438.3365899982</v>
       </c>
       <c r="S29">
-        <v>0.06201651417363184</v>
+        <v>0.05799187213672866</v>
       </c>
       <c r="T29">
-        <v>0.06201651417363184</v>
+        <v>0.05799187213672868</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>197.159157163676</v>
+        <v>210.0997873333333</v>
       </c>
       <c r="H30">
-        <v>197.159157163676</v>
+        <v>630.299362</v>
       </c>
       <c r="I30">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="J30">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>11240.38234255239</v>
+        <v>12225.05237418891</v>
       </c>
       <c r="R30">
-        <v>11240.38234255239</v>
+        <v>110025.4713677002</v>
       </c>
       <c r="S30">
-        <v>0.04631083448164099</v>
+        <v>0.0441751353413246</v>
       </c>
       <c r="T30">
-        <v>0.04631083448164099</v>
+        <v>0.04417513534132461</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>197.159157163676</v>
+        <v>210.0997873333333</v>
       </c>
       <c r="H31">
-        <v>197.159157163676</v>
+        <v>630.299362</v>
       </c>
       <c r="I31">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="J31">
-        <v>0.4281203099093503</v>
+        <v>0.4279015329673814</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>21243.52504354002</v>
+        <v>24337.0962047337</v>
       </c>
       <c r="R31">
-        <v>21243.52504354002</v>
+        <v>219033.8658426033</v>
       </c>
       <c r="S31">
-        <v>0.08752419109211382</v>
+        <v>0.08794191515521238</v>
       </c>
       <c r="T31">
-        <v>0.08752419109211382</v>
+        <v>0.08794191515521238</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.101696304216272</v>
+        <v>0.155771</v>
       </c>
       <c r="H32">
-        <v>0.101696304216272</v>
+        <v>0.467313</v>
       </c>
       <c r="I32">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="J32">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>7.42676753974514</v>
+        <v>14.767067590121</v>
       </c>
       <c r="R32">
-        <v>7.42676753974514</v>
+        <v>132.903608311089</v>
       </c>
       <c r="S32">
-        <v>3.059858568731406E-05</v>
+        <v>5.336068831618103E-05</v>
       </c>
       <c r="T32">
-        <v>3.059858568731406E-05</v>
+        <v>5.336068831618104E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.101696304216272</v>
+        <v>0.155771</v>
       </c>
       <c r="H33">
-        <v>0.101696304216272</v>
+        <v>0.467313</v>
       </c>
       <c r="I33">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="J33">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>14.73474364385273</v>
+        <v>22.68670070394933</v>
       </c>
       <c r="R33">
-        <v>14.73474364385273</v>
+        <v>204.180306335544</v>
       </c>
       <c r="S33">
-        <v>6.070774580652971E-05</v>
+        <v>8.197822335395742E-05</v>
       </c>
       <c r="T33">
-        <v>6.070774580652971E-05</v>
+        <v>8.197822335395743E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.101696304216272</v>
+        <v>0.155771</v>
       </c>
       <c r="H34">
-        <v>0.101696304216272</v>
+        <v>0.467313</v>
       </c>
       <c r="I34">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="J34">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>6.917358099442871</v>
+        <v>11.33638572671733</v>
       </c>
       <c r="R34">
-        <v>6.917358099442871</v>
+        <v>102.027471540456</v>
       </c>
       <c r="S34">
-        <v>2.849979798114189E-05</v>
+        <v>4.096394505568932E-05</v>
       </c>
       <c r="T34">
-        <v>2.849979798114189E-05</v>
+        <v>4.096394505568932E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.101696304216272</v>
+        <v>0.155771</v>
       </c>
       <c r="H35">
-        <v>0.101696304216272</v>
+        <v>0.467313</v>
       </c>
       <c r="I35">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="J35">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>7.76415231280285</v>
+        <v>11.89873970233667</v>
       </c>
       <c r="R35">
-        <v>7.76415231280285</v>
+        <v>107.08865732103</v>
       </c>
       <c r="S35">
-        <v>3.198862473630194E-05</v>
+        <v>4.299600694158894E-05</v>
       </c>
       <c r="T35">
-        <v>3.198862473630194E-05</v>
+        <v>4.299600694158895E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.101696304216272</v>
+        <v>0.155771</v>
       </c>
       <c r="H36">
-        <v>0.101696304216272</v>
+        <v>0.467313</v>
       </c>
       <c r="I36">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="J36">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>5.797881055387379</v>
+        <v>9.063829419105998</v>
       </c>
       <c r="R36">
-        <v>5.797881055387379</v>
+        <v>81.574464771954</v>
       </c>
       <c r="S36">
-        <v>2.388750682295E-05</v>
+        <v>3.275207983117144E-05</v>
       </c>
       <c r="T36">
-        <v>2.388750682295E-05</v>
+        <v>3.275207983117144E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.101696304216272</v>
+        <v>0.155771</v>
       </c>
       <c r="H37">
-        <v>0.101696304216272</v>
+        <v>0.467313</v>
       </c>
       <c r="I37">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="J37">
-        <v>0.000220827953943634</v>
+        <v>0.0003172523425076637</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>10.95758379439787</v>
+        <v>18.04387268080833</v>
       </c>
       <c r="R37">
-        <v>10.95758379439787</v>
+        <v>162.394854127275</v>
       </c>
       <c r="S37">
-        <v>4.514569290939636E-05</v>
+        <v>6.520139900907556E-05</v>
       </c>
       <c r="T37">
-        <v>4.514569290939636E-05</v>
+        <v>6.520139900907556E-05</v>
       </c>
     </row>
   </sheetData>
